--- a/Dados/27-jun.xlsx
+++ b/Dados/27-jun.xlsx
@@ -4754,7 +4754,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>moji mirim</t>
+          <t>mogi mirim</t>
         </is>
       </c>
       <c r="B338" t="n">
